--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Reln-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Reln-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Reln</t>
+  </si>
+  <si>
+    <t>Vldlr</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Reln</t>
-  </si>
-  <si>
-    <t>Vldlr</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H2">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I2">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J2">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N2">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O2">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P2">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q2">
-        <v>0.09484870184899999</v>
+        <v>0.07358326470444444</v>
       </c>
       <c r="R2">
-        <v>0.853638316641</v>
+        <v>0.66224938234</v>
       </c>
       <c r="S2">
-        <v>0.001635361335764572</v>
+        <v>0.001364443900648521</v>
       </c>
       <c r="T2">
-        <v>0.001635361335764572</v>
+        <v>0.001364443900648521</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H3">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I3">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J3">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.798788</v>
       </c>
       <c r="O3">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P3">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q3">
-        <v>2.033989116421778</v>
+        <v>1.461219990320889</v>
       </c>
       <c r="R3">
-        <v>18.305902047796</v>
+        <v>13.150979912888</v>
       </c>
       <c r="S3">
-        <v>0.03506961185043556</v>
+        <v>0.02709519224659523</v>
       </c>
       <c r="T3">
-        <v>0.03506961185043556</v>
+        <v>0.02709519224659522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H4">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I4">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J4">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N4">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O4">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P4">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q4">
-        <v>0.5293631703274444</v>
+        <v>0.343386737935111</v>
       </c>
       <c r="R4">
-        <v>4.764268532947</v>
+        <v>3.090480641416</v>
       </c>
       <c r="S4">
-        <v>0.009127168263298537</v>
+        <v>0.006367370923552607</v>
       </c>
       <c r="T4">
-        <v>0.009127168263298537</v>
+        <v>0.006367370923552606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H5">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I5">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J5">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N5">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O5">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P5">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q5">
-        <v>0.02632437079677778</v>
+        <v>0.01145397885911111</v>
       </c>
       <c r="R5">
-        <v>0.236919337171</v>
+        <v>0.103085809732</v>
       </c>
       <c r="S5">
-        <v>0.000453879255595044</v>
+        <v>0.0002123894836039709</v>
       </c>
       <c r="T5">
-        <v>0.000453879255595044</v>
+        <v>0.0002123894836039709</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>3.089199</v>
       </c>
       <c r="I6">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J6">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N6">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O6">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P6">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q6">
-        <v>0.476963058003</v>
+        <v>0.5150690141566666</v>
       </c>
       <c r="R6">
-        <v>4.292667522026999</v>
+        <v>4.635621127409999</v>
       </c>
       <c r="S6">
-        <v>0.008223696565588417</v>
+        <v>0.00955085069413429</v>
       </c>
       <c r="T6">
-        <v>0.008223696565588417</v>
+        <v>0.009550850694134288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>3.089199</v>
       </c>
       <c r="I7">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J7">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.798788</v>
       </c>
       <c r="O7">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P7">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q7">
         <v>10.22826512120133</v>
@@ -883,10 +883,10 @@
         <v>92.05438609081199</v>
       </c>
       <c r="S7">
-        <v>0.1763535924591924</v>
+        <v>0.1896612499444622</v>
       </c>
       <c r="T7">
-        <v>0.1763535924591924</v>
+        <v>0.1896612499444622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>3.089199</v>
       </c>
       <c r="I8">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J8">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N8">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O8">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P8">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q8">
-        <v>2.661994013534333</v>
+        <v>2.403642584942666</v>
       </c>
       <c r="R8">
-        <v>23.957946121809</v>
+        <v>21.632783264484</v>
       </c>
       <c r="S8">
-        <v>0.04589753998638094</v>
+        <v>0.0445703989560275</v>
       </c>
       <c r="T8">
-        <v>0.04589753998638094</v>
+        <v>0.04457039895602748</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>3.089199</v>
       </c>
       <c r="I9">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J9">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N9">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O9">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P9">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q9">
-        <v>0.1323766393263333</v>
+        <v>0.08017569786866666</v>
       </c>
       <c r="R9">
-        <v>1.191389753937</v>
+        <v>0.7215812808179999</v>
       </c>
       <c r="S9">
-        <v>0.002282410127841089</v>
+        <v>0.001486686441224635</v>
       </c>
       <c r="T9">
-        <v>0.002282410127841089</v>
+        <v>0.001486686441224635</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H10">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I10">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J10">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N10">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O10">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P10">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q10">
-        <v>1.475417732</v>
+        <v>1.511362902342222</v>
       </c>
       <c r="R10">
-        <v>13.278759588</v>
+        <v>13.60226612108</v>
       </c>
       <c r="S10">
-        <v>0.02543884171293689</v>
+        <v>0.02802498505672765</v>
       </c>
       <c r="T10">
-        <v>0.02543884171293689</v>
+        <v>0.02802498505672765</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H11">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I11">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J11">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.798788</v>
       </c>
       <c r="O11">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P11">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q11">
-        <v>31.63969090311111</v>
+        <v>30.01271681002844</v>
       </c>
       <c r="R11">
-        <v>284.757218128</v>
+        <v>270.114451290256</v>
       </c>
       <c r="S11">
-        <v>0.5455248851045345</v>
+        <v>0.5565214938181617</v>
       </c>
       <c r="T11">
-        <v>0.5455248851045345</v>
+        <v>0.5565214938181617</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H12">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I12">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J12">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N12">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O12">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P12">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q12">
-        <v>8.234501821777778</v>
+        <v>7.052989276243554</v>
       </c>
       <c r="R12">
-        <v>74.11051639600001</v>
+        <v>63.476903486192</v>
       </c>
       <c r="S12">
-        <v>0.1419775456711777</v>
+        <v>0.1307825663615696</v>
       </c>
       <c r="T12">
-        <v>0.1419775456711777</v>
+        <v>0.1307825663615695</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H13">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I13">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J13">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N13">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O13">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P13">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q13">
-        <v>0.4094884031111111</v>
+        <v>0.2352589111315555</v>
       </c>
       <c r="R13">
-        <v>3.685395628</v>
+        <v>2.117330200184</v>
       </c>
       <c r="S13">
-        <v>0.007060312780642961</v>
+        <v>0.004362372173292211</v>
       </c>
       <c r="T13">
-        <v>0.00706031278064296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.012677</v>
-      </c>
-      <c r="I14">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J14">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.463191</v>
-      </c>
-      <c r="N14">
-        <v>1.389573</v>
-      </c>
-      <c r="O14">
-        <v>0.0353316468093919</v>
-      </c>
-      <c r="P14">
-        <v>0.0353316468093919</v>
-      </c>
-      <c r="Q14">
-        <v>0.001957290769</v>
-      </c>
-      <c r="R14">
-        <v>0.017615616921</v>
-      </c>
-      <c r="S14">
-        <v>3.374719510201977E-05</v>
-      </c>
-      <c r="T14">
-        <v>3.374719510201977E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.012677</v>
-      </c>
-      <c r="I15">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J15">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>9.932929333333332</v>
-      </c>
-      <c r="N15">
-        <v>29.798788</v>
-      </c>
-      <c r="O15">
-        <v>0.7576717833204485</v>
-      </c>
-      <c r="P15">
-        <v>0.7576717833204486</v>
-      </c>
-      <c r="Q15">
-        <v>0.04197324838622222</v>
-      </c>
-      <c r="R15">
-        <v>0.3777592354759999</v>
-      </c>
-      <c r="S15">
-        <v>0.000723693906286122</v>
-      </c>
-      <c r="T15">
-        <v>0.0007236939062861221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.012677</v>
-      </c>
-      <c r="I16">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J16">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.585130333333333</v>
-      </c>
-      <c r="N16">
-        <v>7.755390999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.1971906014874617</v>
-      </c>
-      <c r="P16">
-        <v>0.1971906014874617</v>
-      </c>
-      <c r="Q16">
-        <v>0.01092389907855556</v>
-      </c>
-      <c r="R16">
-        <v>0.09831509170699998</v>
-      </c>
-      <c r="S16">
-        <v>0.000188347566604596</v>
-      </c>
-      <c r="T16">
-        <v>0.000188347566604596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.012677</v>
-      </c>
-      <c r="I17">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J17">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.1285543333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.385663</v>
-      </c>
-      <c r="O17">
-        <v>0.009805968382697785</v>
-      </c>
-      <c r="P17">
-        <v>0.009805968382697785</v>
-      </c>
-      <c r="Q17">
-        <v>0.0005432277612222222</v>
-      </c>
-      <c r="R17">
-        <v>0.004889049850999999</v>
-      </c>
-      <c r="S17">
-        <v>9.366218618690958E-06</v>
-      </c>
-      <c r="T17">
-        <v>9.366218618690958E-06</v>
+        <v>0.00436237217329221</v>
       </c>
     </row>
   </sheetData>
